--- a/5semestr/matematyka-finansowa/wyklad/przyklad_64.xlsx
+++ b/5semestr/matematyka-finansowa/wyklad/przyklad_64.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oskarpasko/Documents/GitHub/University/5semestr/matematyka-finansowa/wyklad/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\university\5semestr\matematyka-finansowa\wyklad\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81CBAB7E-8A82-5E4E-9DC0-997F80C32904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FC4FF17-0106-4105-978F-6DED0FD09A2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{6A9BF8E9-AD9B-0640-ADC3-9D028CDE6FFF}"/>
+    <workbookView xWindow="30" yWindow="45" windowWidth="13635" windowHeight="13185" xr2:uid="{6A9BF8E9-AD9B-0640-ADC3-9D028CDE6FFF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -125,7 +125,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -141,9 +141,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Pakiet Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -181,7 +181,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Pakiet Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -287,7 +287,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Pakiet Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -439,18 +439,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AFD141E-B52A-1F4B-96BB-C3306073730A}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="218" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B5" sqref="B5:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>5</v>
       </c>
@@ -458,7 +458,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -472,7 +472,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
@@ -492,7 +492,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <v>1</v>
       </c>
@@ -515,7 +515,7 @@
         <v>32614.92</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
         <v>2</v>
       </c>
@@ -539,7 +539,7 @@
         <v>24934.43</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
         <v>3</v>
       </c>
@@ -563,7 +563,7 @@
         <v>16946.72</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
         <v>4</v>
       </c>
@@ -587,7 +587,7 @@
         <v>8639.5000000000018</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
         <v>5</v>
       </c>
@@ -611,13 +611,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F10" s="5">
         <f>SUM(F5:F9)</f>
         <v>40000</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C14" s="5"/>
     </row>
   </sheetData>
